--- a/src/main/resources/accountPeriodExcelTemplates/merchantAccount.xlsx
+++ b/src/main/resources/accountPeriodExcelTemplates/merchantAccount.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="80">
   <si>
     <t>Booking ID</t>
   </si>
@@ -602,36 +602,6 @@
       <t>承担的费用（如有）</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CZVA7185</t>
-  </si>
-  <si>
-    <t>周忠纯</t>
-  </si>
-  <si>
-    <t>Online Travel Agent</t>
-  </si>
-  <si>
-    <t>CN_XAN002</t>
-  </si>
-  <si>
-    <t>OYO 8265 金雁宾馆</t>
-  </si>
-  <si>
-    <t>PrePaid</t>
-  </si>
-  <si>
-    <t>Ctrip</t>
-  </si>
-  <si>
-    <t>6880705906</t>
-  </si>
-  <si>
-    <t>西安</t>
-  </si>
-  <si>
-    <t>NorthWest China</t>
   </si>
   <si>
     <t>Booking guest name</t>
@@ -1383,18 +1353,18 @@
       <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="19" t="str">
-        <f>CRS明细!F4</f>
-        <v>CN_XAN002</v>
+      <c r="C2" s="19" t="e">
+        <f>CRS明细!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="19" t="str">
-        <f>CRS明细!G4</f>
-        <v>OYO 8265 金雁宾馆</v>
+      <c r="C3" s="19" t="e">
+        <f>CRS明细!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1409,9 +1379,9 @@
       <c r="B5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="21">
-        <f>CRS明细!L4</f>
-        <v>2.9999999999999982E-2</v>
+      <c r="C5" s="21" t="e">
+        <f>CRS明细!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1434,7 +1404,7 @@
       </c>
       <c r="C8" s="14">
         <f>SUM(CRS明细!K:K)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1443,7 +1413,7 @@
       </c>
       <c r="C9" s="15">
         <f>SUMIF(CRS明细!R:R,"=确认",CRS明细!H:H)</f>
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
@@ -1452,9 +1422,9 @@
       <c r="B10" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="15" t="e">
         <f>C9*C5</f>
-        <v>4.7699999999999969</v>
+        <v>#REF!</v>
       </c>
       <c r="D10" s="16"/>
     </row>
@@ -1481,9 +1451,9 @@
       <c r="B13" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="15" t="e">
         <f>C10-C11-C12</f>
-        <v>4.7699999999999969</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
@@ -1546,10 +1516,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W1190"/>
+  <dimension ref="A1:W1189"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1574,10 +1544,10 @@
         <v>35</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>36</v>
@@ -1642,13 +1612,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>1</v>
@@ -1711,7 +1681,7 @@
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="37" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1719,7 +1689,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="36" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1738,53 +1708,23 @@
       <c r="W3" s="4"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>71</v>
-      </c>
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H4" s="7">
-        <v>159</v>
-      </c>
-      <c r="I4" s="8">
-        <v>43312</v>
-      </c>
-      <c r="J4" s="8">
-        <v>43313</v>
-      </c>
-      <c r="K4" s="6">
-        <v>1</v>
-      </c>
-      <c r="L4" s="25">
-        <v>2.9999999999999982E-2</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>79</v>
-      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
       <c r="R4" s="6" t="s">
         <v>33</v>
       </c>
@@ -33789,46 +33729,19 @@
       <c r="V1189" s="6"/>
       <c r="W1189" s="10"/>
     </row>
-    <row r="1190" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1190" s="5"/>
-      <c r="B1190" s="6"/>
-      <c r="C1190" s="6"/>
-      <c r="D1190" s="6"/>
-      <c r="E1190" s="6"/>
-      <c r="F1190" s="6"/>
-      <c r="G1190" s="6"/>
-      <c r="H1190" s="7"/>
-      <c r="I1190" s="8"/>
-      <c r="J1190" s="8"/>
-      <c r="K1190" s="6"/>
-      <c r="L1190" s="25"/>
-      <c r="M1190" s="6"/>
-      <c r="N1190" s="6"/>
-      <c r="O1190" s="9"/>
-      <c r="P1190" s="6"/>
-      <c r="Q1190" s="6"/>
-      <c r="R1190" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1190" s="6"/>
-      <c r="T1190" s="6"/>
-      <c r="U1190" s="6"/>
-      <c r="V1190" s="6"/>
-      <c r="W1190" s="10"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U4:U1190">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U4:U1189">
       <formula1>"确认,不确认"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T4:T1190">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T4:T1189">
       <formula1>"0%,1%,1.5%,2%,2.5%,3%,3.5%,4%,5%,6%,7%,8%,9%,10%,15%,20%"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V4:V1190">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V4:V1189">
       <formula1>"业主,OYO"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4:S1190">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4:S1189">
       <formula1>INDIRECT(R4)</formula1>
     </dataValidation>
   </dataValidations>
@@ -33966,13 +33879,13 @@
   <sheetData>
     <row r="20" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F20" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G20" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H20" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/accountPeriodExcelTemplates/merchantAccount.xlsx
+++ b/src/main/resources/accountPeriodExcelTemplates/merchantAccount.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="月账单" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <definedName name="不确认">Sheet1!$B$2:$B$5</definedName>
     <definedName name="确认">Sheet1!$A$2:$A$5</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -642,7 +642,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0%"/>
@@ -1042,7 +1042,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2EB7DE77-8B6C-4678-B932-47A5B1396C32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EB7DE77-8B6C-4678-B932-47A5B1396C32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1092,7 +1092,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9D2B903A-7D7E-4E99-9F45-C6920BD91046}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D2B903A-7D7E-4E99-9F45-C6920BD91046}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1382,7 +1382,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1392,8 +1392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E21"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1411,19 +1411,13 @@
       <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="19" t="e">
-        <f>CRS明细!#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="2:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="19" t="e">
-        <f>CRS明细!#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="C3" s="19"/>
     </row>
     <row r="4" spans="2:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="12" t="s">
@@ -1437,10 +1431,7 @@
       <c r="B5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="21" t="e">
-        <f>CRS明细!#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="C5" s="21"/>
     </row>
     <row r="6" spans="2:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="13" t="s">
@@ -1469,10 +1460,7 @@
       <c r="B9" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="15">
-        <f>SUMIF(CRS明细!R:R,"=确认",CRS明细!H:H)</f>
-        <v>0</v>
-      </c>
+      <c r="C9" s="15"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
     </row>
@@ -1480,20 +1468,14 @@
       <c r="B10" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="15" t="e">
-        <f>C9*C5</f>
-        <v>#REF!</v>
-      </c>
+      <c r="C10" s="15"/>
       <c r="D10" s="16"/>
     </row>
     <row r="11" spans="2:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="15">
-        <f>附表!$C$10</f>
-        <v>0</v>
-      </c>
+      <c r="C11" s="15"/>
       <c r="D11" s="27" t="s">
         <v>62</v>
       </c>
@@ -1509,10 +1491,7 @@
       <c r="B13" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="15" t="e">
-        <f>C10-C11-C12</f>
-        <v>#REF!</v>
-      </c>
+      <c r="C13" s="15"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="37" t="s">
@@ -1576,7 +1555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/accountPeriodExcelTemplates/merchantAccount.xlsx
+++ b/src/main/resources/accountPeriodExcelTemplates/merchantAccount.xlsx
@@ -4,14 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="月账单" sheetId="2" r:id="rId1"/>
     <sheet name="CRS明细" sheetId="1" r:id="rId2"/>
     <sheet name="附表" sheetId="5" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" state="hidden" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">CRS明细!$A$2:$W$2</definedName>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="78">
   <si>
     <t>Booking ID</t>
   </si>
@@ -592,16 +591,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Booking guest name</t>
-  </si>
-  <si>
-    <t>booking secondary Number</t>
-  </si>
-  <si>
-    <t>下载是Guest Details</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Guest Details</t>
   </si>
   <si>
@@ -1098,7 +1087,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1133,7 +1122,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1320,7 +1309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1504,7 +1493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W1415"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1523,10 +1512,10 @@
         <v>35</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>36</v>
@@ -1591,13 +1580,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>1</v>
@@ -39870,37 +39859,37 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="34" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C4" s="35"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" s="33" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C5" s="35"/>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="33" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C6" s="35"/>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" s="33" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C7" s="35"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" s="33" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C8" s="35"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" s="33" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C9" s="35"/>
     </row>
@@ -39962,31 +39951,4 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F20:H20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="20" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F20" t="s">
-        <v>69</v>
-      </c>
-      <c r="G20" t="s">
-        <v>67</v>
-      </c>
-      <c r="H20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>